--- a/_resource/excel/Z-组队-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/Z-组队-玩家属性-(框架维护,请勿修改).xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -113,9 +113,6 @@
     <t>同步客户端</t>
   </si>
   <si>
-    <t>延迟同步客户端</t>
-  </si>
-  <si>
     <t>同步查询者</t>
   </si>
   <si>
@@ -446,6 +443,40 @@
   </si>
   <si>
     <t>队伍配置id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>equest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求同步</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟同步时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1033,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL23"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1058,26 +1089,26 @@
     <col min="20" max="20" width="17.125" style="6" customWidth="1"/>
     <col min="21" max="21" width="11" style="6" customWidth="1"/>
     <col min="22" max="22" width="12.875" style="6" customWidth="1"/>
-    <col min="23" max="23" width="15" style="6" customWidth="1"/>
-    <col min="24" max="24" width="11" style="6" customWidth="1"/>
-    <col min="25" max="25" width="13.75" style="6" customWidth="1"/>
-    <col min="26" max="27" width="17.125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="12.625" style="6" customWidth="1"/>
-    <col min="29" max="29" width="14.875" style="6" customWidth="1"/>
-    <col min="30" max="31" width="11.5" style="6" customWidth="1"/>
-    <col min="32" max="32" width="10.875" style="6" customWidth="1"/>
-    <col min="33" max="33" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.375" style="6" customWidth="1"/>
-    <col min="35" max="35" width="17.125" style="6" customWidth="1"/>
-    <col min="36" max="36" width="21.5" style="6" customWidth="1"/>
-    <col min="37" max="37" width="24.875" style="6" customWidth="1"/>
-    <col min="38" max="38" width="28.75" style="6" customWidth="1"/>
+    <col min="23" max="24" width="15" style="6" customWidth="1"/>
+    <col min="25" max="25" width="11" style="6" customWidth="1"/>
+    <col min="26" max="26" width="13.75" style="6" customWidth="1"/>
+    <col min="27" max="28" width="17.125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="12.625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="14.875" style="6" customWidth="1"/>
+    <col min="31" max="32" width="11.5" style="6" customWidth="1"/>
+    <col min="33" max="33" width="10.875" style="6" customWidth="1"/>
+    <col min="34" max="34" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.375" style="6" customWidth="1"/>
+    <col min="36" max="36" width="17.125" style="6" customWidth="1"/>
+    <col min="37" max="37" width="21.5" style="6" customWidth="1"/>
+    <col min="38" max="38" width="24.875" style="6" customWidth="1"/>
+    <col min="39" max="39" width="28.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1114,9 +1145,10 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
       <c r="AK1" s="8"/>
-      <c r="AL1" s="1"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -1125,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
@@ -1140,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>7</v>
@@ -1155,16 +1187,16 @@
         <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>12</v>
@@ -1181,56 +1213,59 @@
       <c r="V2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="AK2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="2" t="s">
-        <v>20</v>
+      <c r="AL2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -1304,7 +1339,7 @@
         <v>3</v>
       </c>
       <c r="Y3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="9">
         <v>1</v>
@@ -1313,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="9">
         <v>3</v>
@@ -1342,144 +1377,150 @@
       <c r="AK3" s="9">
         <v>3</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="R4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AI4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AK4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AL4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AK4" s="10" t="s">
+      <c r="AM4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="P5" s="12">
         <v>0</v>
@@ -1506,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="X5" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="12">
         <v>0</v>
@@ -1524,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="AD5" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="12">
         <v>0</v>
@@ -1535,842 +1576,881 @@
       <c r="AG5" s="12">
         <v>0</v>
       </c>
+      <c r="AH5" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5">
+        <v>1</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0</v>
+      </c>
+      <c r="U7" s="11">
+        <v>1</v>
+      </c>
+      <c r="V7" s="11">
+        <v>1</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
+        <v>1</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0</v>
+      </c>
+      <c r="T9" s="11">
+        <v>0</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
+        <v>1</v>
+      </c>
+      <c r="W9" s="11">
+        <v>0</v>
+      </c>
+      <c r="X9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0</v>
+      </c>
+      <c r="R10" s="11">
+        <v>0</v>
+      </c>
+      <c r="S10" s="11">
+        <v>0</v>
+      </c>
+      <c r="T10" s="11">
+        <v>0</v>
+      </c>
+      <c r="U10" s="11">
+        <v>0</v>
+      </c>
+      <c r="V10" s="11">
+        <v>1</v>
+      </c>
+      <c r="W10" s="11">
+        <v>0</v>
+      </c>
+      <c r="X10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
+        <v>1</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12" s="11">
+        <v>0</v>
+      </c>
+      <c r="S12" s="11">
+        <v>0</v>
+      </c>
+      <c r="T12" s="11">
+        <v>0</v>
+      </c>
+      <c r="U12" s="11">
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
+        <v>1</v>
+      </c>
+      <c r="W12" s="11">
+        <v>0</v>
+      </c>
+      <c r="X12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
+        <v>1</v>
+      </c>
+      <c r="W13" s="11">
+        <v>0</v>
+      </c>
+      <c r="X13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11">
+        <v>0</v>
+      </c>
+      <c r="S14" s="11">
+        <v>0</v>
+      </c>
+      <c r="T14" s="11">
+        <v>0</v>
+      </c>
+      <c r="U14" s="11">
+        <v>0</v>
+      </c>
+      <c r="V14" s="11">
+        <v>1</v>
+      </c>
+      <c r="W14" s="11">
+        <v>0</v>
+      </c>
+      <c r="X14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>1</v>
-      </c>
-      <c r="V6" s="5">
-        <v>1</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5">
+      <c r="B15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>0</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0</v>
+      </c>
+      <c r="S15" s="11">
+        <v>0</v>
+      </c>
+      <c r="T15" s="11">
+        <v>0</v>
+      </c>
+      <c r="U15" s="11">
+        <v>0</v>
+      </c>
+      <c r="V15" s="11">
+        <v>1</v>
+      </c>
+      <c r="W15" s="11">
+        <v>0</v>
+      </c>
+      <c r="X15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>0</v>
-      </c>
-      <c r="R7" s="11">
-        <v>0</v>
-      </c>
-      <c r="S7" s="11">
-        <v>0</v>
-      </c>
-      <c r="T7" s="11">
-        <v>0</v>
-      </c>
-      <c r="U7" s="11">
-        <v>1</v>
-      </c>
-      <c r="V7" s="11">
-        <v>1</v>
-      </c>
-      <c r="W7" s="11">
-        <v>0</v>
-      </c>
-      <c r="X7" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="11">
+    <row r="16" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0</v>
+      </c>
+      <c r="R16" s="14">
+        <v>0</v>
+      </c>
+      <c r="S16" s="14">
+        <v>0</v>
+      </c>
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0</v>
+      </c>
+      <c r="V16" s="14">
+        <v>1</v>
+      </c>
+      <c r="W16" s="14">
+        <v>0</v>
+      </c>
+      <c r="X16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>0</v>
-      </c>
-      <c r="R8" s="11">
-        <v>0</v>
-      </c>
-      <c r="S8" s="11">
-        <v>0</v>
-      </c>
-      <c r="T8" s="11">
-        <v>0</v>
-      </c>
-      <c r="U8" s="11">
-        <v>0</v>
-      </c>
-      <c r="V8" s="11">
-        <v>1</v>
-      </c>
-      <c r="W8" s="11">
-        <v>0</v>
-      </c>
-      <c r="X8" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="11">
+    <row r="17" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>0</v>
+      </c>
+      <c r="R17" s="14">
+        <v>0</v>
+      </c>
+      <c r="S17" s="14">
+        <v>0</v>
+      </c>
+      <c r="T17" s="14">
+        <v>0</v>
+      </c>
+      <c r="U17" s="14">
+        <v>0</v>
+      </c>
+      <c r="V17" s="14">
+        <v>1</v>
+      </c>
+      <c r="W17" s="14">
+        <v>0</v>
+      </c>
+      <c r="X17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>0</v>
-      </c>
-      <c r="R9" s="11">
-        <v>0</v>
-      </c>
-      <c r="S9" s="11">
-        <v>0</v>
-      </c>
-      <c r="T9" s="11">
-        <v>0</v>
-      </c>
-      <c r="U9" s="11">
-        <v>0</v>
-      </c>
-      <c r="V9" s="11">
-        <v>1</v>
-      </c>
-      <c r="W9" s="11">
-        <v>0</v>
-      </c>
-      <c r="X9" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>0</v>
-      </c>
-      <c r="R10" s="11">
-        <v>0</v>
-      </c>
-      <c r="S10" s="11">
-        <v>0</v>
-      </c>
-      <c r="T10" s="11">
-        <v>0</v>
-      </c>
-      <c r="U10" s="11">
-        <v>0</v>
-      </c>
-      <c r="V10" s="11">
-        <v>1</v>
-      </c>
-      <c r="W10" s="11">
-        <v>0</v>
-      </c>
-      <c r="X10" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="11">
-        <v>0</v>
-      </c>
-      <c r="S11" s="11">
-        <v>0</v>
-      </c>
-      <c r="T11" s="11">
-        <v>0</v>
-      </c>
-      <c r="U11" s="11">
-        <v>0</v>
-      </c>
-      <c r="V11" s="11">
-        <v>1</v>
-      </c>
-      <c r="W11" s="11">
-        <v>0</v>
-      </c>
-      <c r="X11" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="11">
-        <v>1</v>
-      </c>
-      <c r="P12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>0</v>
-      </c>
-      <c r="R12" s="11">
-        <v>0</v>
-      </c>
-      <c r="S12" s="11">
-        <v>0</v>
-      </c>
-      <c r="T12" s="11">
-        <v>0</v>
-      </c>
-      <c r="U12" s="11">
-        <v>0</v>
-      </c>
-      <c r="V12" s="11">
-        <v>1</v>
-      </c>
-      <c r="W12" s="11">
-        <v>0</v>
-      </c>
-      <c r="X12" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="P13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <v>0</v>
-      </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11">
-        <v>0</v>
-      </c>
-      <c r="U13" s="11">
-        <v>0</v>
-      </c>
-      <c r="V13" s="11">
-        <v>1</v>
-      </c>
-      <c r="W13" s="11">
-        <v>0</v>
-      </c>
-      <c r="X13" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>0</v>
-      </c>
-      <c r="R14" s="11">
-        <v>0</v>
-      </c>
-      <c r="S14" s="11">
-        <v>0</v>
-      </c>
-      <c r="T14" s="11">
-        <v>0</v>
-      </c>
-      <c r="U14" s="11">
-        <v>0</v>
-      </c>
-      <c r="V14" s="11">
-        <v>1</v>
-      </c>
-      <c r="W14" s="11">
-        <v>0</v>
-      </c>
-      <c r="X14" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="P15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>0</v>
-      </c>
-      <c r="R15" s="11">
-        <v>0</v>
-      </c>
-      <c r="S15" s="11">
-        <v>0</v>
-      </c>
-      <c r="T15" s="11">
-        <v>0</v>
-      </c>
-      <c r="U15" s="11">
-        <v>0</v>
-      </c>
-      <c r="V15" s="11">
-        <v>1</v>
-      </c>
-      <c r="W15" s="11">
-        <v>0</v>
-      </c>
-      <c r="X15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="P16" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>0</v>
-      </c>
-      <c r="R16" s="14">
-        <v>0</v>
-      </c>
-      <c r="S16" s="14">
-        <v>0</v>
-      </c>
-      <c r="T16" s="14">
-        <v>0</v>
-      </c>
-      <c r="U16" s="14">
-        <v>0</v>
-      </c>
-      <c r="V16" s="14">
-        <v>1</v>
-      </c>
-      <c r="W16" s="14">
-        <v>0</v>
-      </c>
-      <c r="X16" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="P17" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>0</v>
-      </c>
-      <c r="R17" s="14">
-        <v>0</v>
-      </c>
-      <c r="S17" s="14">
-        <v>0</v>
-      </c>
-      <c r="T17" s="14">
-        <v>0</v>
-      </c>
-      <c r="U17" s="14">
-        <v>0</v>
-      </c>
-      <c r="V17" s="14">
-        <v>1</v>
-      </c>
-      <c r="W17" s="14">
-        <v>0</v>
-      </c>
-      <c r="X17" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
     </row>
   </sheetData>
